--- a/Charts_and_Graphs/pertChart.xlsx
+++ b/Charts_and_Graphs/pertChart.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Jeremy Timothy Brown\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Jeremy Timothy Brown\Documents\GitHub\prescribe\Charts_and_Graphs\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -56,9 +56,6 @@
     <t>End: 2/10/2016</t>
   </si>
   <si>
-    <t>Reuirements</t>
-  </si>
-  <si>
     <t>Software Design</t>
   </si>
   <si>
@@ -81,6 +78,9 @@
   </si>
   <si>
     <t>End: 4/22/2016</t>
+  </si>
+  <si>
+    <t>Requirements</t>
   </si>
 </sst>
 </file>
@@ -476,7 +476,7 @@
   <dimension ref="A1:K8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D11" sqref="D11"/>
+      <selection activeCell="E11" sqref="E11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
@@ -503,11 +503,11 @@
       <c r="F1" s="1"/>
       <c r="H1" s="1"/>
       <c r="I1" s="3" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="J1" s="1"/>
       <c r="K1" s="3" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="2" spans="1:11" x14ac:dyDescent="0.55000000000000004">
@@ -528,11 +528,11 @@
       </c>
       <c r="H2" s="9"/>
       <c r="I2" s="4" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="J2" s="9"/>
       <c r="K2" s="4" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="3" spans="1:11" ht="14.7" thickBot="1" x14ac:dyDescent="0.6">
@@ -549,15 +549,15 @@
       </c>
       <c r="F3" s="8"/>
       <c r="G3" s="6" t="s">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="H3" s="9"/>
       <c r="I3" s="5" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="J3" s="9"/>
       <c r="K3" s="5" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="4" spans="1:11" ht="14.7" thickBot="1" x14ac:dyDescent="0.6">
@@ -597,11 +597,11 @@
       </c>
       <c r="H5" s="9"/>
       <c r="I5" s="3" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="J5" s="9"/>
       <c r="K5" s="3" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="6" spans="1:11" x14ac:dyDescent="0.55000000000000004">
@@ -616,11 +616,11 @@
       <c r="G6" s="1"/>
       <c r="H6" s="9"/>
       <c r="I6" s="4" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="J6" s="9"/>
       <c r="K6" s="4" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="7" spans="1:11" ht="14.7" thickBot="1" x14ac:dyDescent="0.6">
@@ -635,11 +635,11 @@
       <c r="G7" s="1"/>
       <c r="H7" s="1"/>
       <c r="I7" s="5" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="J7" s="1"/>
       <c r="K7" s="5" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="8" spans="1:11" x14ac:dyDescent="0.55000000000000004">
